--- a/SQL-Data-2.xlsx
+++ b/SQL-Data-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olirsolutions-my.sharepoint.com/personal/admin_olirsolutions_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{7A04DFB7-9F9A-4D5A-AB22-502201590877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E418123-67DE-49C5-88CE-CE84F9F6B69C}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{7A04DFB7-9F9A-4D5A-AB22-502201590877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EFAC308-BCAD-4A06-B0DA-0A478673A406}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{15F861D4-A620-43B0-AAE7-D789CC74968C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>employee_id</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Jack</t>
-  </si>
-  <si>
-    <t>Anderson</t>
   </si>
   <si>
     <t>Engineering</t>
@@ -256,10 +253,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,7 +575,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,7 +645,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -673,14 +666,12 @@
       <c r="F3" s="1">
         <v>80000.25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -694,7 +685,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>45108</v>
@@ -703,13 +694,13 @@
         <v>75000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -733,14 +724,12 @@
         <v>50000.5</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -753,12 +742,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" ref="D3:D11" si="0">_xlfn.CONCAT(B6,".",C6,"@olir.com")</f>
+        <f t="shared" ref="D6:D9" si="0">_xlfn.CONCAT(B6,".",C6,"@olir.com")</f>
         <v>Eve.Davis@olir.com</v>
       </c>
-      <c r="E6" s="3">
-        <v>44699</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="1">
         <v>67000.25</v>
       </c>
@@ -769,7 +756,7 @@
         <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -792,14 +779,12 @@
       <c r="F7" s="1">
         <v>90000.75</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -807,7 +792,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
@@ -823,13 +808,13 @@
         <v>7200025</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -842,16 +827,11 @@
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Hank.Moore@olir.com</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="3">
         <v>45336</v>
       </c>
-      <c r="F9" s="1">
-        <v>5500050</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
@@ -859,7 +839,7 @@
         <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -883,13 +863,11 @@
         <v>8200075</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -899,13 +877,8 @@
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f>_xlfn.CONCAT(B11,".",C11,"@olirsolutions.com")</f>
-        <v>Jack.Anderson@olirsolutions.com</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="3">
         <v>44535</v>
       </c>
@@ -913,13 +886,13 @@
         <v>72500.75</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
